--- a/文档/测试用例设计.xlsx
+++ b/文档/测试用例设计.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="登录界面" sheetId="1" r:id="rId1"/>
     <sheet name="注册界面" sheetId="2" r:id="rId2"/>
     <sheet name="找回界面" sheetId="3" r:id="rId3"/>
+    <sheet name="设置界面" sheetId="4" r:id="rId4"/>
+    <sheet name="学习界面" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
   <si>
     <t>用例描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,6 +267,94 @@
   </si>
   <si>
     <t>返回登录界面，且登录界面的内容保持不变。使用新密码可以登录，旧密码不能登录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回设置界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置每天学习的个数为30个（默认为20个）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在主页进入学习的界面，只有三十个可以学习的字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置每天学习的个数10个（默认为20个）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在主页进入学习的界面，只有十个可以学习的字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击清空所有数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有学习进度被清理，历史记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击个人信息设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到个人信息设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换设备，可以同步用户的每天学习字数个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步学习进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换设备，可以同步用户的学习进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置应用，第一个字默认是“丢”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从学习模式到了再认模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一个笔画故意写错，写错次数超过3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出红色，提示用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确的写完，不出任何一个错误，点击下一个，点击返回，在点击开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意笔画，一共写错超过5次，点击下一个，点击返回，在点击开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续保持在学习模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写好这个字，点击重写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新开始写字，且不允许进入下一个字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -964,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -975,7 +1065,7 @@
     <col min="3" max="3" width="33.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -986,7 +1076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1096,6 +1186,219 @@
       </c>
       <c r="C15" s="3" t="s">
         <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
